--- a/src/analysis_examples/circadb/results_lomb/cosinor_10389701_akap1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10389701_akap1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27758508575675983, 0.36326533410258893]</t>
+          <t>[0.2781255971330163, 0.36272482272633244]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.331290964250002e-13</v>
+        <v>4.167777234442838e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.331290964250002e-13</v>
+        <v>4.167777234442838e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.4340002502872329, -1.1572633598809245]</t>
+          <t>[-1.446579199851156, -1.1446844103170015]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="S2" t="n">
         <v>0.4831846828500344</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4583888340337891, 0.5079805316662795]</t>
+          <t>[0.4583667908575846, 0.5080025748424841]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.006686686686823</v>
       </c>
       <c r="X2" t="n">
-        <v>4.471991991992113</v>
+        <v>4.423383383383504</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.541381381381533</v>
+        <v>5.589989989990142</v>
       </c>
     </row>
   </sheetData>
